--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="236" yWindow="353" windowWidth="17280" windowHeight="9962"/>
+    <workbookView xWindow="236" yWindow="353" windowWidth="17280" windowHeight="9962" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
+    <sheet name="Video2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qen3TqCW7LY</t>
   </si>
 </sst>
 </file>
@@ -401,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -418,4 +422,27 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="236" yWindow="353" windowWidth="17280" windowHeight="9962" activeTab="1"/>
+    <workbookView xWindow="236" yWindow="353" windowWidth="17280" windowHeight="9962" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
     <sheet name="Video2" sheetId="2" r:id="rId2"/>
+    <sheet name="Video3" sheetId="3" r:id="rId3"/>
+    <sheet name="Video4" sheetId="4" r:id="rId4"/>
+    <sheet name="Video5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,12 +38,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Qen3TqCW7LY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Axjni-V37A4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AvhpiwTKcZk</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -445,4 +454,61 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK4-DH\TTCSN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19042023\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B463ED4-63B5-4D28-AD4F-BC95581ECC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="353" windowWidth="17280" windowHeight="9962" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -23,22 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
   </si>
@@ -51,11 +42,14 @@
   <si>
     <t>https://youtu.be/AvhpiwTKcZk</t>
   </si>
+  <si>
+    <t>https://youtu.be/Oqy8So-hzwc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,14 +405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -427,21 +421,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -450,21 +444,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -473,21 +467,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -500,15 +494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19042023\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B463ED4-63B5-4D28-AD4F-BC95581ECC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246F6D5-BE41-460D-8A8C-3F83316D7E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,17 +498,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{198E6AD3-2366-4D5A-A893-875930329C09}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\19042023\TTCSN-GROUP10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246F6D5-BE41-460D-8A8C-3F83316D7E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB0092-9DF4-41E6-BB28-08DA24EBA7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2592" yWindow="1548" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
   </si>
@@ -40,10 +40,7 @@
     <t>https://youtu.be/Axjni-V37A4</t>
   </si>
   <si>
-    <t>https://youtu.be/AvhpiwTKcZk</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Oqy8So-hzwc</t>
+    <t>https://youtu.be/UyXkte02GQQ</t>
   </si>
 </sst>
 </file>
@@ -477,41 +474,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{198E6AD3-2366-4D5A-A893-875930329C09}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{64284464-F346-4E57-8364-EF131C73EBF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\BaoCao\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB0092-9DF4-41E6-BB28-08DA24EBA7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0485AB7D-0AD8-4CC0-B1BB-8486DB6A6E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2592" yWindow="1548" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>https://youtu.be/UyXkte02GQQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/d8Ub1Z0KhAc</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -495,12 +500,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\BaoCao\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0485AB7D-0AD8-4CC0-B1BB-8486DB6A6E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -18,6 +17,8 @@
     <sheet name="Video3" sheetId="3" r:id="rId3"/>
     <sheet name="Video4" sheetId="4" r:id="rId4"/>
     <sheet name="Video5" sheetId="5" r:id="rId5"/>
+    <sheet name="Video7" sheetId="6" r:id="rId6"/>
+    <sheet name="Video8" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
   </si>
@@ -45,11 +46,17 @@
   <si>
     <t>https://youtu.be/d8Ub1Z0KhAc</t>
   </si>
+  <si>
+    <t>https://youtu.be/gzZqr_LAEuI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZUR2gfZ2D6c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -421,14 +428,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -444,14 +451,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -467,14 +474,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -490,18 +497,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{64284464-F346-4E57-8364-EF131C73EBF2}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,4 +521,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,10 @@
     <sheet name="Video3" sheetId="3" r:id="rId3"/>
     <sheet name="Video4" sheetId="4" r:id="rId4"/>
     <sheet name="Video5" sheetId="5" r:id="rId5"/>
-    <sheet name="Video7" sheetId="6" r:id="rId6"/>
-    <sheet name="Video8" sheetId="7" r:id="rId7"/>
+    <sheet name="Video6" sheetId="8" r:id="rId6"/>
+    <sheet name="Video7" sheetId="6" r:id="rId7"/>
+    <sheet name="Video8" sheetId="7" r:id="rId8"/>
+    <sheet name="Video9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
   </si>
@@ -51,6 +53,9 @@
   </si>
   <si>
     <t>https://youtu.be/ZUR2gfZ2D6c</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9YjtB_L-RBo</t>
   </si>
 </sst>
 </file>
@@ -527,7 +532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -543,7 +566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -561,4 +584,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\TTCSN-GROUP10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTCSN\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Video7" sheetId="6" r:id="rId7"/>
     <sheet name="Video8" sheetId="7" r:id="rId8"/>
     <sheet name="Video9" sheetId="9" r:id="rId9"/>
+    <sheet name="Video10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>https://www.youtube.com/watch?v=PP9UjVCCzKU&amp;t=34s</t>
   </si>
@@ -56,6 +57,9 @@
   </si>
   <si>
     <t>https://youtu.be/9YjtB_L-RBo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/10IEfycQDEQ</t>
   </si>
 </sst>
 </file>
@@ -439,6 +443,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://youtu.be/10IEfycQDEQ?fbclid=IwAR3Phnskc5GJVnIq9qIG8gb2i2rYsbaFv0pfJsqFglYFKeVZ1ZAeQl-SjM8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -590,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
+++ b/Documents/1603223_FIT_LinkVideoMinhChung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTCSN\TTCSN-GROUP10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTCNS_NHOM10\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B91B0-AE41-4DE5-B039-9ABA30607A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -437,17 +438,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +461,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://youtu.be/10IEfycQDEQ?fbclid=IwAR3Phnskc5GJVnIq9qIG8gb2i2rYsbaFv0pfJsqFglYFKeVZ1ZAeQl-SjM8"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://youtu.be/10IEfycQDEQ?fbclid=IwAR3Phnskc5GJVnIq9qIG8gb2i2rYsbaFv0pfJsqFglYFKeVZ1ZAeQl-SjM8" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -468,7 +469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -484,14 +485,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -507,14 +508,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -530,14 +531,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -557,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -575,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -595,7 +596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -615,21 +616,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{838332AF-95DE-4A5F-B794-23D45B7E3445}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>